--- a/CreateItems.WPF/Для создания.xlsx
+++ b/CreateItems.WPF/Для создания.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c20601a3098bc0a/Документы/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimae\source\repos\Dimaematveev\ConfectioneryChain\CreateItems.WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{CF5ED62A-A8FE-4747-A27B-01497620DC91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7EFBA2-0B2B-4F8F-BCDE-10CE5D4D8DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="770" activeTab="1" xr2:uid="{E3814086-BFCA-4D0B-B20C-987C319C87ED}"/>
+    <workbookView xWindow="4800" yWindow="1050" windowWidth="14400" windowHeight="7360" tabRatio="770" activeTab="10" xr2:uid="{E3814086-BFCA-4D0B-B20C-987C319C87ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="NEW" sheetId="4" r:id="rId1"/>
-    <sheet name="Unit" sheetId="11" r:id="rId2"/>
+    <sheet name="Unit" sheetId="11" r:id="rId1"/>
+    <sheet name="ItemInRecipe" sheetId="13" r:id="rId2"/>
     <sheet name="TypeOfGood" sheetId="10" r:id="rId3"/>
     <sheet name="Goods" sheetId="6" r:id="rId4"/>
-    <sheet name="Position" sheetId="9" r:id="rId5"/>
-    <sheet name="Confectionery" sheetId="1" r:id="rId6"/>
-    <sheet name="HierararchyInRecipe" sheetId="3" r:id="rId7"/>
-    <sheet name="Recipe" sheetId="2" r:id="rId8"/>
-    <sheet name="Employee" sheetId="5" r:id="rId9"/>
-    <sheet name="DistributionOfEmployee" sheetId="12" r:id="rId10"/>
+    <sheet name="NEW" sheetId="4" r:id="rId5"/>
+    <sheet name="Position" sheetId="9" r:id="rId6"/>
+    <sheet name="Confectionery" sheetId="1" r:id="rId7"/>
+    <sheet name="HierararchyInRecipe" sheetId="3" r:id="rId8"/>
+    <sheet name="Recipe" sheetId="2" r:id="rId9"/>
+    <sheet name="Employee" sheetId="5" r:id="rId10"/>
+    <sheet name="DistributionOfEmployee" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="116">
   <si>
     <t>IDConfectionery</t>
   </si>
@@ -352,6 +353,36 @@
   </si>
   <si>
     <t>Должность</t>
+  </si>
+  <si>
+    <t>IDItemInRecipe</t>
+  </si>
+  <si>
+    <t>ItemInRecipeID</t>
+  </si>
+  <si>
+    <t>GoodsID</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>ItemInRecipe</t>
+  </si>
+  <si>
+    <t>ItemInRecipes</t>
+  </si>
+  <si>
+    <t>Код замены</t>
+  </si>
+  <si>
+    <t>Продукт</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Влияние на вкус</t>
   </si>
 </sst>
 </file>
@@ -702,11 +733,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E80F015-D272-4D86-B4C3-5BBAAA38412B}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815364D0-FE0F-43BD-B2E5-FD2176A946CA}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT(C4,$B$2)</f>
+        <v>IDUnitsUnit</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B6" si="0">_xlfn.CONCAT(C5,$B$2)</f>
+        <v>MultipleValueUnit</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>NameUnit</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671FCC39-29DC-4D3B-A661-D16612191333}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,16 +879,106 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" t="str">
         <f>_xlfn.CONCAT(C4,$B$2)</f>
-        <v/>
+        <v>IDEmployeeEmployee</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B9" si="0">_xlfn.CONCAT(C5,$B$2)</f>
+        <v>PassportSeriaEmployee</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>PassportNumberEmployee</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>FamilyEmployee</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>NameEmployee</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>PatronymicNameEmployee</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -761,12 +987,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308ACE5F-61C7-4D65-B1DE-2569D78EEE56}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,116 +1111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815364D0-FE0F-43BD-B2E5-FD2176A946CA}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A2:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="str">
-        <f>_xlfn.CONCAT(C4,$B$2)</f>
-        <v>IDUnitsUnit</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B6" si="0">_xlfn.CONCAT(C5,$B$2)</f>
-        <v>MultipleValueUnit</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>NameUnit</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7876666-0C9C-4E2A-8F36-45BFCB181FF8}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003EB951-58C8-4956-9A00-0C7FAC87D211}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,6 +1153,195 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT(C4,$B$2)</f>
+        <v>IDItemInRecipeItemInRecipe</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B10" si="0">_xlfn.CONCAT(C5,$B$2)</f>
+        <v>ItemInRecipeIDItemInRecipe</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>RecipeIDItemInRecipe</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>HierarchyItemInRecipe</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>GoodsIDItemInRecipe</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>CountItemInRecipe</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>PercentageOfInfluenceOnTasteItemInRecipe</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7876666-0C9C-4E2A-8F36-45BFCB181FF8}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1083,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732CDE7D-05A6-4CED-BE58-4564109C6C33}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
@@ -1227,11 +1537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F105EC-F11F-4199-A792-919211089CE2}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E80F015-D272-4D86-B4C3-5BBAAA38412B}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1268,76 +1578,16 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
       <c r="B4" t="str">
         <f>_xlfn.CONCAT(C4,$B$2)</f>
-        <v>IDPositionPosition</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B7" si="0">_xlfn.CONCAT(C5,$B$2)</f>
-        <v>NamePosition</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>MinimumHoursPosition</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>WorkHourRatePosition</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1347,11 +1597,131 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F105EC-F11F-4199-A792-919211089CE2}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT(C4,$B$2)</f>
+        <v>IDPositionPosition</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B7" si="0">_xlfn.CONCAT(C5,$B$2)</f>
+        <v>NamePosition</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>MinimumHoursPosition</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>WorkHourRatePosition</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E40878C-0054-4F70-93EF-B2F059B1B1B0}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A10" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1405,7 +1775,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="str">
-        <f>_xlfn.CONCAT(C4,$B$2)</f>
+        <f t="shared" ref="B4:B10" si="0">_xlfn.CONCAT(C4,$B$2)</f>
         <v>IDConfectioneryConfectionery</v>
       </c>
       <c r="C4" t="s">
@@ -1420,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="str">
-        <f>_xlfn.CONCAT(C5,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>NameConfectionery</v>
       </c>
       <c r="C5" t="s">
@@ -1435,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="str">
-        <f>_xlfn.CONCAT(C6,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>AddressConfectionery</v>
       </c>
       <c r="C6" t="s">
@@ -1450,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="str">
-        <f>_xlfn.CONCAT(C7,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>RentPricelConfectionery</v>
       </c>
       <c r="C7" t="s">
@@ -1465,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.CONCAT(C8,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>BeginWorkConfectionery</v>
       </c>
       <c r="C8" t="s">
@@ -1480,7 +1850,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="str">
-        <f>_xlfn.CONCAT(C9,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>EndWorkConfectionery</v>
       </c>
       <c r="C9" t="s">
@@ -1495,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="str">
-        <f>_xlfn.CONCAT(C10,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>MoneyConfectionery</v>
       </c>
       <c r="C10" t="s">
@@ -1511,12 +1881,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C8F555-030A-4429-9C15-86B04D968451}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1622,12 +1992,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B8CFA-7DDD-4DD3-95E5-2612CD93D156}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1681,7 +2051,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="str">
-        <f>_xlfn.CONCAT(C4,$B$2)</f>
+        <f t="shared" ref="B4:B9" si="0">_xlfn.CONCAT(C4,$B$2)</f>
         <v>IDRecipeRecipe</v>
       </c>
       <c r="C4" t="s">
@@ -1696,7 +2066,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="str">
-        <f>_xlfn.CONCAT(C5,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>DateCreateRecipe</v>
       </c>
       <c r="C5" t="s">
@@ -1711,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="str">
-        <f>_xlfn.CONCAT(C6,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>MarkIsWorkRecipe</v>
       </c>
       <c r="C6" t="s">
@@ -1726,7 +2096,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="str">
-        <f>_xlfn.CONCAT(C7,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>ChefIDRecipe</v>
       </c>
       <c r="C7" t="s">
@@ -1747,7 +2117,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.CONCAT(C8,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>NameRecipe</v>
       </c>
       <c r="C8" t="s">
@@ -1762,7 +2132,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="str">
-        <f>_xlfn.CONCAT(C9,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>DescriptionRecipe</v>
       </c>
       <c r="C9" t="s">
@@ -1770,156 +2140,6 @@
       </c>
       <c r="D9" t="s">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671FCC39-29DC-4D3B-A661-D16612191333}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="str">
-        <f>_xlfn.CONCAT(C4,$B$2)</f>
-        <v>IDEmployeeEmployee</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B9" si="0">_xlfn.CONCAT(C5,$B$2)</f>
-        <v>PassportSeriaEmployee</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>PassportNumberEmployee</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>FamilyEmployee</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>NameEmployee</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>PatronymicNameEmployee</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/CreateItems.WPF/Для создания.xlsx
+++ b/CreateItems.WPF/Для создания.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimae\source\repos\Dimaematveev\ConfectioneryChain\CreateItems.WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7EFBA2-0B2B-4F8F-BCDE-10CE5D4D8DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB3AA85-108E-47E6-B61B-9BF1DE039DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1050" windowWidth="14400" windowHeight="7360" tabRatio="770" activeTab="10" xr2:uid="{E3814086-BFCA-4D0B-B20C-987C319C87ED}"/>
+    <workbookView xWindow="4800" yWindow="1050" windowWidth="14400" windowHeight="7360" tabRatio="770" xr2:uid="{E3814086-BFCA-4D0B-B20C-987C319C87ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unit" sheetId="11" r:id="rId1"/>
-    <sheet name="ItemInRecipe" sheetId="13" r:id="rId2"/>
-    <sheet name="TypeOfGood" sheetId="10" r:id="rId3"/>
-    <sheet name="Goods" sheetId="6" r:id="rId4"/>
-    <sheet name="NEW" sheetId="4" r:id="rId5"/>
+    <sheet name="NEW" sheetId="4" r:id="rId1"/>
+    <sheet name="Unit" sheetId="11" r:id="rId2"/>
+    <sheet name="ItemInRecipe" sheetId="13" r:id="rId3"/>
+    <sheet name="TypeOfGood" sheetId="10" r:id="rId4"/>
+    <sheet name="Goods" sheetId="6" r:id="rId5"/>
     <sheet name="Position" sheetId="9" r:id="rId6"/>
     <sheet name="Confectionery" sheetId="1" r:id="rId7"/>
     <sheet name="HierararchyInRecipe" sheetId="3" r:id="rId8"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="118">
   <si>
     <t>IDConfectionery</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>Влияние на вкус</t>
+  </si>
+  <si>
+    <t>MaxCount</t>
+  </si>
+  <si>
+    <t>ToppingInRecipe</t>
   </si>
 </sst>
 </file>
@@ -733,11 +739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815364D0-FE0F-43BD-B2E5-FD2176A946CA}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E80F015-D272-4D86-B4C3-5BBAAA38412B}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,7 +751,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -775,60 +781,96 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
       <c r="B4" t="str">
         <f>_xlfn.CONCAT(C4,$B$2)</f>
-        <v>IDUnitsUnit</v>
+        <v>RecipeIDToppingInRecipe</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B6" si="0">_xlfn.CONCAT(C5,$B$2)</f>
-        <v>MultipleValueUnit</v>
+        <f t="shared" ref="B5:B12" si="0">_xlfn.CONCAT(C5,$B$2)</f>
+        <v>GoodsIDToppingInRecipe</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>NameUnit</v>
+        <v>PercentageOfInfluenceOnTasteToppingInRecipe</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>CountToppingInRecipe</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>MaxCountToppingInRecipe</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>ToppingInRecipe</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>ToppingInRecipe</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>ToppingInRecipe</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>ToppingInRecipe</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308ACE5F-61C7-4D65-B1DE-2569D78EEE56}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1111,6 +1153,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815364D0-FE0F-43BD-B2E5-FD2176A946CA}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT(C4,$B$2)</f>
+        <v>IDUnitsUnit</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B6" si="0">_xlfn.CONCAT(C5,$B$2)</f>
+        <v>MultipleValueUnit</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>NameUnit</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003EB951-58C8-4956-9A00-0C7FAC87D211}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -1299,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7876666-0C9C-4E2A-8F36-45BFCB181FF8}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1389,7 +1536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732CDE7D-05A6-4CED-BE58-4564109C6C33}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1528,66 +1675,6 @@
       </c>
       <c r="D8" t="s">
         <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E80F015-D272-4D86-B4C3-5BBAAA38412B}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="str">
-        <f>_xlfn.CONCAT(C4,$B$2)</f>
-        <v/>
       </c>
     </row>
   </sheetData>
